--- a/Flow.xlsx
+++ b/Flow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyWork\SlaughterHousePro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7477D750-7EC4-460D-B0C5-ED48F90ED2A9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B86BD5-9E25-47DA-816B-798DB5AD79FE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91E8D54B-F990-41C3-886E-5826528DE177}"/>
   </bookViews>
@@ -30,6 +30,170 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+  <si>
+    <t>รับหมูเป็น</t>
+  </si>
+  <si>
+    <t>รับหมูซีก</t>
+  </si>
+  <si>
+    <t>รับหัว</t>
+  </si>
+  <si>
+    <t>รับเครื่องในแดง</t>
+  </si>
+  <si>
+    <t>รับเครื่องในขาว</t>
+  </si>
+  <si>
+    <t>การรับเข้า</t>
+  </si>
+  <si>
+    <t>เบิกผลิต</t>
+  </si>
+  <si>
+    <t>สร้างเอกสาร Production Order</t>
+  </si>
+  <si>
+    <t>สร้างเอกสารรับ</t>
+  </si>
+  <si>
+    <t>ห้องเก็บเครื่องในแดง</t>
+  </si>
+  <si>
+    <t>ห้องเก็บเครื่องในขาว</t>
+  </si>
+  <si>
+    <t>ห้องเก็บหมูซีก</t>
+  </si>
+  <si>
+    <t>ลานรับหมูเป็น</t>
+  </si>
+  <si>
+    <t>ส่วนจัดเก็บ</t>
+  </si>
+  <si>
+    <t>สร้างเอกสาร Sale Order</t>
+  </si>
+  <si>
+    <t>*เลือกสินค้าเบิก</t>
+  </si>
+  <si>
+    <t>*ระบุจำนวน</t>
+  </si>
+  <si>
+    <t>*เลือกลูกค้า</t>
+  </si>
+  <si>
+    <t>*เลือกสินค้า</t>
+  </si>
+  <si>
+    <t>*ระบุจำนวนหรือน้ำหนัก</t>
+  </si>
+  <si>
+    <t>ขายหมุซีก</t>
+  </si>
+  <si>
+    <t>*เลือก Sale Order</t>
+  </si>
+  <si>
+    <t>*สแกน Barcode</t>
+  </si>
+  <si>
+    <t>ขายสินค้าและชิ้นส่วน</t>
+  </si>
+  <si>
+    <t>จุดจ่ายหัว</t>
+  </si>
+  <si>
+    <t>การขาย</t>
+  </si>
+  <si>
+    <t>การออก Invoice</t>
+  </si>
+  <si>
+    <t>*ระบบคำนวนราคาตาม Price List และลูกค้า</t>
+  </si>
+  <si>
+    <t>*Print เอกสารให้ลูกค้า</t>
+  </si>
+  <si>
+    <t>*เลิอกเอกสารการรับ</t>
+  </si>
+  <si>
+    <t>*เลือกเพศ</t>
+  </si>
+  <si>
+    <t>*เริ่มชั่งและรับค่าน้ำหนัก Manual</t>
+  </si>
+  <si>
+    <t>*ชั่งหมูซีกและรับน้ำหนัก แบบ Manual</t>
+  </si>
+  <si>
+    <t>*เริ่มชั่งและรับค่าน้ำหนัก Auto</t>
+  </si>
+  <si>
+    <t>ห้องเก็บหัว</t>
+  </si>
+  <si>
+    <t>เบิกหมูซีก</t>
+  </si>
+  <si>
+    <t>*เลือก Production Order</t>
+  </si>
+  <si>
+    <t>*เลือก Lot</t>
+  </si>
+  <si>
+    <t>*สแกน Barcode เพื่อ confirm รับเข้าคลัง</t>
+  </si>
+  <si>
+    <t>*ปิด Production Order</t>
+  </si>
+  <si>
+    <t>เบิกชิ้นส่วน</t>
+  </si>
+  <si>
+    <t>*ชั่งน้ำหนัก + พิมพ์ Barcode</t>
+  </si>
+  <si>
+    <t>จุดรับหมูเป็น 1 จุด</t>
+  </si>
+  <si>
+    <t>จุดรับหมูซีก 1 จุด</t>
+  </si>
+  <si>
+    <t>จุดรับหัว 1จุด</t>
+  </si>
+  <si>
+    <t>จุดรับเครื่องในแดง 1 จุด</t>
+  </si>
+  <si>
+    <t>จุดรับเครื่องในขาว 1 จุด</t>
+  </si>
+  <si>
+    <t>จุดชั่งขายซีก 1 จุด</t>
+  </si>
+  <si>
+    <t>จุดจ่ายสินค้าและชิ้นส่วน 2 จุด</t>
+  </si>
+  <si>
+    <t>จุดจ่ายเครื่องใน 1 จุด</t>
+  </si>
+  <si>
+    <t>จุดจ่ายหมูซีกเข้าผลิต 1จุด</t>
+  </si>
+  <si>
+    <t>จุดรับผลได้ชิ้นส่วน 2 จุด</t>
+  </si>
+  <si>
+    <t>จุดรับเข้าคลัง 2 จุด  *** เพิ่ม</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -41,12 +205,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -61,8 +237,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,12 +560,329 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F362AD-DBB7-41FB-9558-3322620CB88E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:BL53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="D33" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>32</v>
+      </c>
+      <c r="BJ44" s="1"/>
+      <c r="BL44" s="1"/>
+    </row>
+    <row r="45" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="D45" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="BJ45" s="1"/>
+      <c r="BL45" s="1"/>
+    </row>
+    <row r="46" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B37:B38"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>